--- a/Responsiblity.xlsx
+++ b/Responsiblity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishal\Desktop\Dxc Final Proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFA5BBD-9B1A-4148-8A49-42494C47A4C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77011AE6-4AB5-4312-8E7E-684769BC559C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Email</t>
   </si>
@@ -84,22 +84,16 @@
     <t xml:space="preserve">neha.mishra@dxc.com </t>
   </si>
   <si>
-    <t>Phase-2</t>
-  </si>
-  <si>
-    <t>Phase-2,3</t>
-  </si>
-  <si>
-    <t>Phase-3,4</t>
-  </si>
-  <si>
-    <t>Phase-2,6</t>
-  </si>
-  <si>
-    <t>Phase-1,6</t>
-  </si>
-  <si>
-    <t>Phase-4,5</t>
+    <t>Customer and Consumer Login and Registration</t>
+  </si>
+  <si>
+    <t>Customer Level Operation</t>
+  </si>
+  <si>
+    <t>Consumer Operations</t>
+  </si>
+  <si>
+    <t>Bank Representative Level Account Operations</t>
   </si>
 </sst>
 </file>
@@ -446,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,7 +450,7 @@
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
     <col min="3" max="3" width="20.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="47.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -492,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -526,7 +520,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -543,7 +537,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -560,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -577,7 +571,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
